--- a/Sep 2019 to Oct 2019 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Sep 2019 to Oct 2019 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB24A321-3857-41CC-9432-6ED28289B91E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D16CF2-76C3-4818-AFC9-48353EE73179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,24 +298,6 @@
     <t>ACC Network Extra</t>
   </si>
   <si>
-    <t>Network added to DB in Oct 2019</t>
-  </si>
-  <si>
-    <t>Alias changed for Network</t>
-  </si>
-  <si>
-    <t>Network added as part of Base for this Service</t>
-  </si>
-  <si>
-    <t>Network added to Add-on package within this Service</t>
-  </si>
-  <si>
-    <t>Network removed from the Base of this Service</t>
-  </si>
-  <si>
-    <t>Network moved from Add-On Package to Base in this Service</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -325,10 +307,28 @@
     <t>New Value</t>
   </si>
   <si>
-    <t>Name of Add-on Package changed with the Service</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Package within Service</t>
+    <t>Alias Changed for Network</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Added to Add-On Package</t>
+  </si>
+  <si>
+    <t>Name of Add-On Package Changed</t>
+  </si>
+  <si>
+    <t>New Network Added to Database</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Moved from Add-On Package to Base Service</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
   </si>
 </sst>
 </file>
@@ -1176,11 +1176,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1197,19 +1198,19 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1223,10 +1224,10 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1237,10 +1238,10 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1251,10 +1252,10 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1265,10 +1266,10 @@
         <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -1279,10 +1280,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1293,10 +1294,10 @@
         <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1307,10 +1308,10 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1321,10 +1322,10 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1335,10 +1336,10 @@
         <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1349,10 +1350,10 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -1363,7 +1364,7 @@
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1377,7 +1378,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1391,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1405,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1419,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1433,10 +1434,10 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1447,10 +1448,10 @@
         <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1475,10 +1476,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -1503,10 +1504,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1517,10 +1518,10 @@
         <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1545,10 +1546,10 @@
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -1576,10 +1577,10 @@
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1593,10 +1594,10 @@
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -1621,10 +1622,10 @@
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1635,10 +1636,10 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1652,10 +1653,10 @@
         <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1669,10 +1670,10 @@
         <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
@@ -1700,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
@@ -1714,10 +1715,10 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1728,10 +1729,10 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1745,7 +1746,7 @@
         <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
@@ -1759,7 +1760,7 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
@@ -1773,10 +1774,10 @@
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
@@ -1801,10 +1802,10 @@
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -1818,10 +1819,10 @@
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1835,10 +1836,10 @@
         <v>65</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -1852,10 +1853,10 @@
         <v>65</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1869,10 +1870,10 @@
         <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -1886,10 +1887,10 @@
         <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>65</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
@@ -1917,10 +1918,10 @@
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
@@ -1948,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
@@ -1962,10 +1963,10 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +1977,7 @@
         <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
@@ -1990,7 +1991,7 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
@@ -2004,10 +2005,10 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
@@ -2032,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
@@ -2046,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
@@ -2060,10 +2061,10 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -2077,10 +2078,10 @@
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
@@ -2108,7 +2109,7 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
@@ -2122,7 +2123,7 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
@@ -2136,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
@@ -2150,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
@@ -2164,10 +2165,10 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -2181,10 +2182,10 @@
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>90</v>
       </c>
@@ -2195,10 +2196,10 @@
         <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -2209,10 +2210,10 @@
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>37</v>
       </c>
@@ -2223,10 +2224,10 @@
         <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -2237,10 +2238,10 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2251,10 +2252,10 @@
         <v>39</v>
       </c>
       <c r="E72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2265,10 +2266,10 @@
         <v>89</v>
       </c>
       <c r="E73" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2279,10 +2280,10 @@
         <v>39</v>
       </c>
       <c r="E74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -2293,10 +2294,10 @@
         <v>89</v>
       </c>
       <c r="E75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
@@ -2321,10 +2322,10 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>68</v>
       </c>
@@ -2335,10 +2336,10 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -2349,10 +2350,10 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>12</v>
       </c>
@@ -2363,10 +2364,10 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -2380,11 +2381,16 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E81" xr:uid="{C22D153C-55A1-478B-8D5F-01AF32BAD411}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Network Removed from Service"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E81">
       <sortCondition ref="B2:B81"/>
       <sortCondition ref="E2:E81"/>
